--- a/CommitmentLettersApp/ImportTemplates/תבנית יבוא התחיבויות שיעורי עזר למילואימניקים.xlsx
+++ b/CommitmentLettersApp/ImportTemplates/תבנית יבוא התחיבויות שיעורי עזר למילואימניקים.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofir/Develop/Clients/DRLogy/Site/DrLogyMisc/CommitmentLettersApp/ImportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEAA8C-614C-CF41-97A8-7ABDD018F9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FEA2AB-3EE8-4D4A-9D4B-8DF6E9DA0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="7700" windowWidth="29980" windowHeight="15540" xr2:uid="{80D5FA03-17CC-472B-A333-F3A10A5D6810}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>ת.ז</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>שיעורי עזר למילואימניקים</t>
+  </si>
+  <si>
+    <t>שיר</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,7 +731,7 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B4128A4-7196-4215-9F67-B22DDA4A1998}">
           <x14:formula1>
             <xm:f>טבלאות!$A$2:$A$9</xm:f>
@@ -743,7 +746,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54A042F5-6A70-4167-8F45-95036D4E9037}">
           <x14:formula1>
-            <xm:f>טבלאות!$C$2:$C$13</xm:f>
+            <xm:f>טבלאות!$C$2:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L2</xm:sqref>
         </x14:dataValidation>
@@ -756,10 +759,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C62C1A-47BA-428A-A7F6-55A218332B22}">
   <sheetPr codeName="Worksheet______2"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -845,6 +848,11 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
